--- a/static/xlsx/cabs_ajg_2024.xlsx
+++ b/static/xlsx/cabs_ajg_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/ajg/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joechan/Documents/development/researchplymouth/static/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D107B381-799F-BB43-9F4A-6E992B9B9633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95666BBE-7760-F141-A2BE-8FB179FA1C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="8000" windowWidth="31740" windowHeight="19600" xr2:uid="{68424553-FFB7-8647-8FAD-3868AEFB0076}"/>
+    <workbookView xWindow="3160" yWindow="5120" windowWidth="37480" windowHeight="24900" xr2:uid="{68424553-FFB7-8647-8FAD-3868AEFB0076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6000,8 +6000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8846048-C0F9-5343-A9AF-3D14B0CF12F6}">
   <dimension ref="A1:L1822"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1745" workbookViewId="0">
+      <selection activeCell="B1849" sqref="B1849"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
